--- a/Keyword Extraction/Results_Detailed Accuracy/detailedAccuracy_Output.txt.xlsx
+++ b/Keyword Extraction/Results_Detailed Accuracy/detailedAccuracy_Output.txt.xlsx
@@ -1094,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>99.99955892562866</v>
+        <v>99.99992847442627</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1124,10 +1124,10 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>99.62270259857178</v>
+        <v>99.9825656414032</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1135,10 +1135,10 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>99.99997615814209</v>
+        <v>60.59531569480896</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1149,7 +1149,7 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>99.99997615814209</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1157,10 +1157,10 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>100</v>
+        <v>85.95828413963318</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1168,7 +1168,7 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>100</v>
@@ -1179,10 +1179,10 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>99.96410608291626</v>
+        <v>91.99870824813843</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1215,7 +1215,7 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>99.99985694885254</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1226,7 +1226,7 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>99.99994039535522</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1237,7 +1237,7 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>88.06438446044922</v>
+        <v>97.26511240005493</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1270,7 +1270,7 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>99.98645782470703</v>
+        <v>99.99951124191284</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1281,7 +1281,7 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>99.99998807907104</v>
+        <v>99.99995231628418</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1292,7 +1292,7 @@
         <v>2</v>
       </c>
       <c r="D22">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1325,7 +1325,7 @@
         <v>2</v>
       </c>
       <c r="D25">
-        <v>99.99997615814209</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1336,7 +1336,7 @@
         <v>2</v>
       </c>
       <c r="D26">
-        <v>100</v>
+        <v>99.99978542327881</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1380,7 +1380,7 @@
         <v>2</v>
       </c>
       <c r="D30">
-        <v>99.99974966049194</v>
+        <v>99.99996423721313</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1402,7 +1402,7 @@
         <v>2</v>
       </c>
       <c r="D32">
-        <v>99.99998807907104</v>
+        <v>99.99543428421021</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1435,7 +1435,7 @@
         <v>2</v>
       </c>
       <c r="D35">
-        <v>99.99997615814209</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1454,10 +1454,10 @@
         <v>38</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>99.99848604202271</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1468,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>100</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1523,7 +1523,7 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <v>99.99991655349731</v>
+        <v>99.72549080848694</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1556,7 +1556,7 @@
         <v>2</v>
       </c>
       <c r="D46">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1578,7 +1578,7 @@
         <v>2</v>
       </c>
       <c r="D48">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1644,7 +1644,7 @@
         <v>2</v>
       </c>
       <c r="D54">
-        <v>84.04362201690674</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1655,7 +1655,7 @@
         <v>2</v>
       </c>
       <c r="D55">
-        <v>100</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1666,7 +1666,7 @@
         <v>2</v>
       </c>
       <c r="D56">
-        <v>99.99982118606567</v>
+        <v>99.96091723442078</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1677,7 +1677,7 @@
         <v>1</v>
       </c>
       <c r="D57">
-        <v>99.99501705169678</v>
+        <v>99.9971866607666</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1699,7 +1699,7 @@
         <v>2</v>
       </c>
       <c r="D59">
-        <v>98.77257943153381</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1718,7 +1718,7 @@
         <v>62</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D61">
         <v>100</v>
@@ -1732,7 +1732,7 @@
         <v>2</v>
       </c>
       <c r="D62">
-        <v>99.94651675224304</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1743,7 +1743,7 @@
         <v>2</v>
       </c>
       <c r="D63">
-        <v>100</v>
+        <v>99.99991655349731</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1751,10 +1751,10 @@
         <v>65</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>99.99245405197144</v>
+        <v>99.98040795326233</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1809,7 +1809,7 @@
         <v>2</v>
       </c>
       <c r="D69">
-        <v>100</v>
+        <v>99.99990463256836</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1820,7 +1820,7 @@
         <v>2</v>
       </c>
       <c r="D70">
-        <v>99.99833106994629</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1842,7 +1842,7 @@
         <v>2</v>
       </c>
       <c r="D72">
-        <v>99.99938011169434</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1853,7 +1853,7 @@
         <v>2</v>
       </c>
       <c r="D73">
-        <v>99.99674558639526</v>
+        <v>99.99181032180786</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1908,7 +1908,7 @@
         <v>2</v>
       </c>
       <c r="D78">
-        <v>97.30775952339172</v>
+        <v>99.99961853027344</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1916,10 +1916,10 @@
         <v>80</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79">
-        <v>99.99839067459106</v>
+        <v>84.98300909996033</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1930,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="D80">
-        <v>99.9987006187439</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1941,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="D81">
-        <v>99.9997615814209</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1949,10 +1949,10 @@
         <v>83</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <v>99.99990463256836</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="D84">
-        <v>92.52040982246399</v>
+        <v>99.99997615814209</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2007,7 +2007,7 @@
         <v>2</v>
       </c>
       <c r="D87">
-        <v>99.99994039535522</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2015,10 +2015,10 @@
         <v>89</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D88">
-        <v>90.89524745941162</v>
+        <v>53.71508002281189</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2026,10 +2026,10 @@
         <v>90</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D89">
-        <v>99.98781681060791</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2037,10 +2037,10 @@
         <v>91</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D90">
-        <v>99.99903440475464</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2051,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="D91">
-        <v>99.9982476234436</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2062,7 +2062,7 @@
         <v>2</v>
       </c>
       <c r="D92">
-        <v>100</v>
+        <v>99.99669790267944</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2073,7 +2073,7 @@
         <v>2</v>
       </c>
       <c r="D93">
-        <v>99.99628067016602</v>
+        <v>99.89771842956543</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2084,7 +2084,7 @@
         <v>2</v>
       </c>
       <c r="D94">
-        <v>100</v>
+        <v>89.76674675941467</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2106,7 +2106,7 @@
         <v>1</v>
       </c>
       <c r="D96">
-        <v>99.99998807907104</v>
+        <v>99.99967813491821</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2128,7 +2128,7 @@
         <v>2</v>
       </c>
       <c r="D98">
-        <v>99.99974966049194</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2150,7 +2150,7 @@
         <v>2</v>
       </c>
       <c r="D100">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2161,7 +2161,7 @@
         <v>2</v>
       </c>
       <c r="D101">
-        <v>100</v>
+        <v>99.98487234115601</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2172,7 +2172,7 @@
         <v>2</v>
       </c>
       <c r="D102">
-        <v>99.85337257385254</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2227,7 +2227,7 @@
         <v>2</v>
       </c>
       <c r="D107">
-        <v>100</v>
+        <v>99.99212026596069</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2238,7 +2238,7 @@
         <v>2</v>
       </c>
       <c r="D108">
-        <v>100</v>
+        <v>99.99955892562866</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2249,7 +2249,7 @@
         <v>2</v>
       </c>
       <c r="D109">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2257,10 +2257,10 @@
         <v>111</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D110">
-        <v>99.99411106109619</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2271,7 +2271,7 @@
         <v>2</v>
       </c>
       <c r="D111">
-        <v>99.99972581863403</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2315,7 +2315,7 @@
         <v>2</v>
       </c>
       <c r="D115">
-        <v>99.99985694885254</v>
+        <v>100</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2323,10 +2323,10 @@
         <v>117</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D116">
-        <v>99.99997615814209</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2334,10 +2334,10 @@
         <v>118</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D117">
-        <v>97.88206219673157</v>
+        <v>99.99616146087646</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2348,7 +2348,7 @@
         <v>2</v>
       </c>
       <c r="D118">
-        <v>97.74078726768494</v>
+        <v>99.97789263725281</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2392,7 +2392,7 @@
         <v>2</v>
       </c>
       <c r="D122">
-        <v>99.99998807907104</v>
+        <v>99.99954700469971</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2414,7 +2414,7 @@
         <v>2</v>
       </c>
       <c r="D124">
-        <v>99.99992847442627</v>
+        <v>100</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2444,10 +2444,10 @@
         <v>128</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D127">
-        <v>97.6487398147583</v>
+        <v>100</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2458,7 +2458,7 @@
         <v>2</v>
       </c>
       <c r="D128">
-        <v>99.99998807907104</v>
+        <v>99.99996423721313</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2480,7 +2480,7 @@
         <v>2</v>
       </c>
       <c r="D130">
-        <v>99.99995231628418</v>
+        <v>100</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2510,10 +2510,10 @@
         <v>134</v>
       </c>
       <c r="C133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D133">
-        <v>99.99991655349731</v>
+        <v>99.99511241912842</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2524,7 +2524,7 @@
         <v>2</v>
       </c>
       <c r="D134">
-        <v>99.99891519546509</v>
+        <v>100</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2535,7 +2535,7 @@
         <v>2</v>
       </c>
       <c r="D135">
-        <v>100</v>
+        <v>99.99905824661255</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2546,7 +2546,7 @@
         <v>2</v>
       </c>
       <c r="D136">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2590,7 +2590,7 @@
         <v>2</v>
       </c>
       <c r="D140">
-        <v>100</v>
+        <v>99.98816251754761</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2623,7 +2623,7 @@
         <v>2</v>
       </c>
       <c r="D143">
-        <v>100</v>
+        <v>99.99986886978149</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2634,7 +2634,7 @@
         <v>2</v>
       </c>
       <c r="D144">
-        <v>99.9998927116394</v>
+        <v>100</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2733,7 +2733,7 @@
         <v>2</v>
       </c>
       <c r="D153">
-        <v>99.99921321868896</v>
+        <v>100</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2755,7 +2755,7 @@
         <v>2</v>
       </c>
       <c r="D155">
-        <v>98.9899218082428</v>
+        <v>100</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2766,7 +2766,7 @@
         <v>2</v>
       </c>
       <c r="D156">
-        <v>99.99548196792603</v>
+        <v>100</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2777,7 +2777,7 @@
         <v>2</v>
       </c>
       <c r="D157">
-        <v>99.99963045120239</v>
+        <v>100</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2810,7 +2810,7 @@
         <v>2</v>
       </c>
       <c r="D160">
-        <v>87.50811219215393</v>
+        <v>100</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2818,10 +2818,10 @@
         <v>162</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D161">
-        <v>98.70291948318481</v>
+        <v>92.17342138290405</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2832,7 +2832,7 @@
         <v>2</v>
       </c>
       <c r="D162">
-        <v>99.99996423721313</v>
+        <v>100</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2843,7 +2843,7 @@
         <v>2</v>
       </c>
       <c r="D163">
-        <v>99.80314373970032</v>
+        <v>100</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2854,7 +2854,7 @@
         <v>2</v>
       </c>
       <c r="D164">
-        <v>64.85191583633423</v>
+        <v>95.80987691879272</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2876,7 +2876,7 @@
         <v>2</v>
       </c>
       <c r="D166">
-        <v>100</v>
+        <v>81.40982389450073</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2887,7 +2887,7 @@
         <v>2</v>
       </c>
       <c r="D167">
-        <v>100</v>
+        <v>99.99996423721313</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2898,7 +2898,7 @@
         <v>2</v>
       </c>
       <c r="D168">
-        <v>100</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2909,7 +2909,7 @@
         <v>1</v>
       </c>
       <c r="D169">
-        <v>99.99998807907104</v>
+        <v>99.99997615814209</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2920,7 +2920,7 @@
         <v>2</v>
       </c>
       <c r="D170">
-        <v>99.99974966049194</v>
+        <v>99.99955892562866</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2953,7 +2953,7 @@
         <v>2</v>
       </c>
       <c r="D173">
-        <v>99.99557733535767</v>
+        <v>100</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3008,7 +3008,7 @@
         <v>2</v>
       </c>
       <c r="D178">
-        <v>100</v>
+        <v>99.99996423721313</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3019,7 +3019,7 @@
         <v>2</v>
       </c>
       <c r="D179">
-        <v>100</v>
+        <v>99.9994158744812</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3041,7 +3041,7 @@
         <v>2</v>
       </c>
       <c r="D181">
-        <v>99.99994039535522</v>
+        <v>100</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3071,10 +3071,10 @@
         <v>185</v>
       </c>
       <c r="C184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D184">
-        <v>100</v>
+        <v>97.34569787979126</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3082,10 +3082,10 @@
         <v>186</v>
       </c>
       <c r="C185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D185">
-        <v>99.99995231628418</v>
+        <v>100</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3093,10 +3093,10 @@
         <v>187</v>
       </c>
       <c r="C186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D186">
-        <v>99.99964237213135</v>
+        <v>64.0005350112915</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3118,7 +3118,7 @@
         <v>2</v>
       </c>
       <c r="D188">
-        <v>99.99986886978149</v>
+        <v>100</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3126,10 +3126,10 @@
         <v>190</v>
       </c>
       <c r="C189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D189">
-        <v>99.99990463256836</v>
+        <v>100</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3170,10 +3170,10 @@
         <v>194</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D193">
-        <v>78.27016711235046</v>
+        <v>100</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3206,7 +3206,7 @@
         <v>2</v>
       </c>
       <c r="D196">
-        <v>99.99994039535522</v>
+        <v>99.99997615814209</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3236,10 +3236,10 @@
         <v>200</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D199">
-        <v>89.12178874015808</v>
+        <v>99.99889135360718</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3250,7 +3250,7 @@
         <v>1</v>
       </c>
       <c r="D200">
-        <v>79.32512164115906</v>
+        <v>99.99468326568604</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3272,7 +3272,7 @@
         <v>2</v>
       </c>
       <c r="D202">
-        <v>99.98267292976379</v>
+        <v>100</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3291,10 +3291,10 @@
         <v>205</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D204">
-        <v>54.62914705276489</v>
+        <v>99.99995231628418</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3316,7 +3316,7 @@
         <v>2</v>
       </c>
       <c r="D206">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3360,7 +3360,7 @@
         <v>2</v>
       </c>
       <c r="D210">
-        <v>99.99994039535522</v>
+        <v>99.99997615814209</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3371,7 +3371,7 @@
         <v>2</v>
       </c>
       <c r="D211">
-        <v>98.72542023658752</v>
+        <v>63.68331909179688</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3393,7 +3393,7 @@
         <v>2</v>
       </c>
       <c r="D213">
-        <v>99.9998927116394</v>
+        <v>99.99988079071045</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3404,7 +3404,7 @@
         <v>2</v>
       </c>
       <c r="D214">
-        <v>99.99996423721313</v>
+        <v>99.90843534469604</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3426,7 +3426,7 @@
         <v>2</v>
       </c>
       <c r="D216">
-        <v>100</v>
+        <v>99.99996423721313</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3434,10 +3434,10 @@
         <v>217</v>
       </c>
       <c r="C217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D217">
-        <v>99.99959468841553</v>
+        <v>99.99675750732422</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3470,7 +3470,7 @@
         <v>1</v>
       </c>
       <c r="D220">
-        <v>87.21507787704468</v>
+        <v>100</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3478,7 +3478,7 @@
         <v>221</v>
       </c>
       <c r="C221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D221">
         <v>100</v>
@@ -3492,7 +3492,7 @@
         <v>1</v>
       </c>
       <c r="D222">
-        <v>99.98846054077148</v>
+        <v>100</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3503,7 +3503,7 @@
         <v>2</v>
       </c>
       <c r="D223">
-        <v>100</v>
+        <v>99.99940395355225</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="D224">
-        <v>99.99992847442627</v>
+        <v>100</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3525,7 +3525,7 @@
         <v>1</v>
       </c>
       <c r="D225">
-        <v>99.99994039535522</v>
+        <v>100</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3536,7 +3536,7 @@
         <v>1</v>
       </c>
       <c r="D226">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3544,10 +3544,10 @@
         <v>227</v>
       </c>
       <c r="C227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D227">
-        <v>68.4438943862915</v>
+        <v>100</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3566,10 +3566,10 @@
         <v>229</v>
       </c>
       <c r="C229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D229">
-        <v>100</v>
+        <v>99.9998927116394</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3580,7 +3580,7 @@
         <v>1</v>
       </c>
       <c r="D230">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3591,7 +3591,7 @@
         <v>1</v>
       </c>
       <c r="D231">
-        <v>99.99896287918091</v>
+        <v>100</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3610,10 +3610,10 @@
         <v>233</v>
       </c>
       <c r="C233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D233">
-        <v>99.72967505455017</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Keyword Extraction/Results_Detailed Accuracy/detailedAccuracy_Output.txt.xlsx
+++ b/Keyword Extraction/Results_Detailed Accuracy/detailedAccuracy_Output.txt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="171">
   <si>
     <t>Original Text</t>
   </si>
@@ -25,697 +25,508 @@
     <t>Confidence Level</t>
   </si>
   <si>
-    <t>hey everybody it's your personal trainer</t>
-  </si>
-  <si>
-    <t>coach kozak here from has fake</t>
-  </si>
-  <si>
-    <t>and i'm claudia</t>
-  </si>
-  <si>
-    <t>and this is our beginner weight training routine</t>
-  </si>
-  <si>
-    <t>this routine is great for both men and women of a beginner fitness level</t>
-  </si>
-  <si>
-    <t>the only equipment required for this workout is a pair of dumbbells now</t>
-  </si>
-  <si>
-    <t>that weight of the dumbbells is going to be totally determined by your current fitness level</t>
-  </si>
-  <si>
-    <t>just remember it's much better to start light and work your way up than the other way around the only only other equipment that you may want for</t>
-  </si>
-  <si>
-    <t>this workout is a chair or a box for some of the modified movements</t>
-  </si>
-  <si>
-    <t>we're going to do the whole thing with you</t>
-  </si>
-  <si>
-    <t>ready to get this thing</t>
-  </si>
-  <si>
-    <t>going all right we're going to start with either a dumbbell crusher or a dumbbell tiro so if you want to do the easier modified versions you go and follow claudia</t>
-  </si>
-  <si>
-    <t>she's going to be using one dumbbell</t>
-  </si>
-  <si>
-    <t>i'm going to use two</t>
-  </si>
-  <si>
-    <t>so that's the main difference</t>
-  </si>
-  <si>
-    <t>i'm going to squeeze these together and i'm going to pull back and claudia is just going to interlock her fingers and pull back either way</t>
-  </si>
-  <si>
-    <t>we're both pulling back on our elbows</t>
-  </si>
-  <si>
-    <t>keeping those elbows tucked in nice and tight to the body pulling back we're keeping our core tight and straight and our upper body is on a 45 degree angle</t>
-  </si>
-  <si>
-    <t>now we're not going to count any repetitions today</t>
-  </si>
-  <si>
-    <t>i just want you to try to perform as many moves as you can in allotted time period work at your own pace but at the same time be sure to push yourself because nobody else can do it for you</t>
-  </si>
-  <si>
-    <t>three nice work keep it going pulling back on those elbows keeping them tight to your body in five four three two and one okay</t>
-  </si>
-  <si>
-    <t>we're going to go to the ground for the next one</t>
-  </si>
-  <si>
-    <t>it's going to be a combo movement</t>
-  </si>
-  <si>
-    <t>we're going to need both weights for this one</t>
-  </si>
-  <si>
-    <t>we're going to do a hip up plus chest press</t>
-  </si>
-  <si>
-    <t>we're going to drive off our heels and at the same time we're going to press the dumbbell straight up and back down getting a lot of different body parts worked in this one</t>
-  </si>
-  <si>
-    <t>so we're getting your hamstrings your glutes your lower back</t>
-  </si>
-  <si>
-    <t>your abs just shoulders triceps</t>
-  </si>
-  <si>
-    <t>the list goes on but it's a very efficient movement getting a lot of work in in a short period of time</t>
-  </si>
-  <si>
-    <t>drive off those heels</t>
-  </si>
-  <si>
-    <t>squeeze the gluts up at the top</t>
-  </si>
-  <si>
-    <t>try your best not to hyperextend your back to just come up until your upper body is in this nice straight line and make sure not to bounce your arms off the ground either nice work breathe one right into the next moving at a pace that you feel comfortable with you got it almost there</t>
-  </si>
-  <si>
-    <t>let's go five more seconds on this one and four three two one and done okay</t>
-  </si>
-  <si>
-    <t>we're on to our feet for the next one need both weights again</t>
-  </si>
-  <si>
-    <t>we're going to either do a stiff leg</t>
-  </si>
-  <si>
-    <t>deadlift plus shrug or claudia is going to show you an ar deal with chance for romanian deadlift</t>
-  </si>
-  <si>
-    <t>i didn't make that up</t>
-  </si>
-  <si>
-    <t>+ + shrug either way</t>
-  </si>
-  <si>
-    <t>we're going to put our weight back in our hips little</t>
-  </si>
-  <si>
-    <t>bend the knee</t>
-  </si>
-  <si>
-    <t>i'm going to go all the way down</t>
-  </si>
-  <si>
-    <t>and i'm going to bring my hips forward and shrug claudia's just going to come</t>
-  </si>
-  <si>
-    <t>and bring her hands just below our knees and then repeat that same shrug</t>
-  </si>
-  <si>
-    <t>so we're driving our hips backwards</t>
-  </si>
-  <si>
-    <t>all the way up hips forward</t>
-  </si>
-  <si>
-    <t>and then shrug bringing your shoulders up to your ears</t>
-  </si>
-  <si>
-    <t>feel that stretching your hamstrings</t>
-  </si>
-  <si>
-    <t>if you're not feeling a stretch in the back of your leg then i want to make sure you drive in those hips back just a little bit in those knees and hips</t>
-  </si>
-  <si>
-    <t>go back again</t>
-  </si>
-  <si>
-    <t>another combo movement this one feet in hamstrings gluts lower back and your traps good and notice how both of us are keeping our backs</t>
-  </si>
-  <si>
-    <t>nice and straight on this movement so we're not breaking that straight line and punching over but keeping our back straight while we're kicking those hips back you got it almost done with this one five four three two and last one zero nice okay</t>
-  </si>
-  <si>
-    <t>so we're going to move on to some shoulder presses next</t>
-  </si>
-  <si>
-    <t>i'm gonna grab my box over here</t>
-  </si>
-  <si>
-    <t>claudia's going to grab our box</t>
-  </si>
-  <si>
-    <t>and i'm going to do this</t>
-  </si>
-  <si>
-    <t>one from a standing position so from the box</t>
-  </si>
-  <si>
-    <t>it's a little easier standing a little harder standing it forces me to use a little bit more stability and a little bit more core but overall very comparable movements</t>
-  </si>
-  <si>
-    <t>you decide which one is right for you if you don't feel comfortable the overhead quite yet grab a seat full range of motion on this one all the way up all the way down</t>
-  </si>
-  <si>
-    <t>stay nice and under control you want to fling or swing the dumbbells around keep your core tight</t>
-  </si>
-  <si>
-    <t>this is a strength training routine so we don't want to</t>
-  </si>
-  <si>
-    <t>i know you said work at your own pace</t>
-  </si>
-  <si>
-    <t>but we definitely don't want to make this a cardio and just start pumping out correct exactly right if you using a weight that you can just do</t>
-  </si>
-  <si>
-    <t>100 reps in this 30-second time period</t>
-  </si>
-  <si>
-    <t>then you up the weight nice okay not much time left on this one and five four three two and one nice all right</t>
-  </si>
-  <si>
-    <t>shake the arm</t>
-  </si>
-  <si>
-    <t>move this out of the way and we're going to move into a dumbbell curl so we're gonna hit those biceps next working on the gun show chloe's got to go and show her tank top on tonight with those guns anyway</t>
-  </si>
-  <si>
-    <t>firing my wife's guns okay</t>
-  </si>
-  <si>
-    <t>so we're going to do a curl</t>
-  </si>
-  <si>
-    <t>both palms come up</t>
-  </si>
-  <si>
-    <t>we're going to curl those pinkies in on the way up and then all the way back down again</t>
-  </si>
-  <si>
-    <t>this one's under control so that means we're not swinging up and flinging them back down right</t>
-  </si>
-  <si>
-    <t>it defeats the purpose</t>
-  </si>
-  <si>
-    <t>but instead i feel that time under tension feel those muscles contracting all the way up and all the way down you got it good closing give you a nice side view</t>
-  </si>
-  <si>
-    <t>keep those shoulders back and square</t>
-  </si>
-  <si>
-    <t>mm-hmm you got it</t>
-  </si>
-  <si>
-    <t>we're breathing just 10 more seconds left on this one flight through you got it and three two one and zero are moving to the lower body</t>
-  </si>
-  <si>
-    <t>claudia is going to grab her box or if you have a chair that works as well if you want to the modified version</t>
-  </si>
-  <si>
-    <t>i'm also going to lose a dumbbell</t>
-  </si>
-  <si>
-    <t>here yeah gigi exactly</t>
-  </si>
-  <si>
-    <t>she's only gonna use one way good point so she's going to do a goblet squats</t>
-  </si>
-  <si>
-    <t>she notice how she's holding the way up two hands and i got a new thumbs out</t>
-  </si>
-  <si>
-    <t>i'm not gonna do a dumbbell squat just with at my side so i'm going to go up</t>
-  </si>
-  <si>
-    <t>be able to get a little bit deeper</t>
-  </si>
-  <si>
-    <t>then doing the chair or box squat</t>
-  </si>
-  <si>
-    <t>but either way we're both bending at the hips first driving those hips back and then coming down until our hips are parallel to the ground</t>
-  </si>
-  <si>
-    <t>all the way up all the way down and i'm just touching the chair and coming right back up</t>
-  </si>
-  <si>
-    <t>i'm not sitting not resting exactly</t>
-  </si>
-  <si>
-    <t>i make sure you're bouncing</t>
-  </si>
-  <si>
-    <t>that's the other thing right</t>
-  </si>
-  <si>
-    <t>correct on swing off of this</t>
-  </si>
-  <si>
-    <t>if you guys still shave you hear the seat either or squatting make sure you keep those knees out</t>
-  </si>
-  <si>
-    <t>don't allow them to break your compress in nice work</t>
-  </si>
-  <si>
-    <t>how much left on this one</t>
-  </si>
-  <si>
-    <t>i know your legs are probably starting to feel it</t>
-  </si>
-  <si>
-    <t>i didn't forget about you</t>
-  </si>
-  <si>
-    <t>we got five four three two and one done okay</t>
-  </si>
-  <si>
-    <t>we're going to move on</t>
-  </si>
-  <si>
-    <t>to a dumbbell tricep kickback</t>
-  </si>
-  <si>
-    <t>we're gonna hit those triceps next save movement really just to put a mix up your weight find</t>
-  </si>
-  <si>
-    <t>what weight works for you on this one</t>
-  </si>
-  <si>
-    <t>so we're bent over our elbows are up</t>
-  </si>
-  <si>
-    <t>we're only going to bend at those elbows not moving the whole arm</t>
-  </si>
-  <si>
-    <t>keep your core tight and at the top</t>
-  </si>
-  <si>
-    <t>you're squeezing that back of the arm squeezing your triceps up at the top nice work notice</t>
-  </si>
-  <si>
-    <t>we're using that elbow as a lever</t>
-  </si>
-  <si>
-    <t>so we're not moving that upper arm</t>
-  </si>
-  <si>
-    <t>just bend at the elbow so i mean but as you're not going here right now singing no swinging because now all the sudden all the other muscles are taking over we just want to isolate the triceps on this one you got it ten more seconds</t>
-  </si>
-  <si>
-    <t>that's it guys are doing great</t>
-  </si>
-  <si>
-    <t>thank you so much for joining us today and for all of your hard work and three two one and done</t>
-  </si>
-  <si>
-    <t>okay we're going to the ground losing my weights body's going to lose your weights</t>
-  </si>
-  <si>
-    <t>i'm going to keep mine though we're going to do a dumbbell reach crunch so from a crunch position we're going to our feet on the ground</t>
-  </si>
-  <si>
-    <t>we're going to reach up to the ceiling</t>
-  </si>
-  <si>
-    <t>we're going our shoulder blades</t>
-  </si>
-  <si>
-    <t>off the ground and come back down to earth contracting the abs up at the top reaching up big and high you see i'm using my weights making it more difficult claudia</t>
-  </si>
-  <si>
-    <t>she's just using her body weight</t>
-  </si>
-  <si>
-    <t>you could also just use one way if you wanted to straight so again</t>
-  </si>
-  <si>
-    <t>it's all about making this your own coming back repeating it getting a little bit better every single time and that's how we improve that consistency</t>
-  </si>
-  <si>
-    <t>nice work reaching up</t>
-  </si>
-  <si>
-    <t>don't bounce off the ground stay under control you got it nice work nice work</t>
-  </si>
-  <si>
-    <t>we got 10 more seconds on this one beyond those abs start to work</t>
-  </si>
-  <si>
-    <t>that's a good thing</t>
-  </si>
-  <si>
-    <t>that's the feeling of improvement right there and three two one and zero okay</t>
-  </si>
-  <si>
-    <t>we're going to rest</t>
-  </si>
-  <si>
-    <t>that's the end of the first round</t>
-  </si>
-  <si>
-    <t>we got one more to go all right so it's a quick 20 second break</t>
-  </si>
-  <si>
-    <t>that doesn't give you much time</t>
-  </si>
-  <si>
-    <t>if you want</t>
-  </si>
-  <si>
-    <t>feel free to grab some water shake it loose</t>
-  </si>
-  <si>
-    <t>take a couple deep breaths</t>
-  </si>
-  <si>
-    <t>we're going to get right back into it all right so we got ten seconds</t>
-  </si>
-  <si>
-    <t>i'm going to grab my dumbbells</t>
-  </si>
-  <si>
-    <t>we're getting ready</t>
-  </si>
-  <si>
-    <t>we're starting with the row we're gonna doing my crusher row claudia's doing her t row and here we go</t>
-  </si>
-  <si>
-    <t>we're pulling back at those elbows keeping our core nice and tight and if you're wondering why we didn't take a longer break even though we're beginners that's because the workout specifically designed to allow some muscles to rest while others are working so right now our backs working but at the same time our chest may be resting allows us to get a lot done in a short period of time again pulling back on those elbows anytime</t>
-  </si>
-  <si>
-    <t>you're doing a row you want to be like you have a string attached to your elbows and you're just pulling back on it</t>
-  </si>
-  <si>
-    <t>just be sure to keep that core tight also exactly</t>
-  </si>
-  <si>
-    <t>you don't want your back getting loose or allowing your abs to relax almost there on this one</t>
-  </si>
-  <si>
-    <t>let's go five four three two and one all right going to the ground you need both weights for this next one doing that</t>
-  </si>
-  <si>
-    <t>hip up plus chest press</t>
-  </si>
-  <si>
-    <t>so we're driving off the heels and squeezing our glutes and pressing up at the same time nice work and again on any of these</t>
-  </si>
-  <si>
-    <t>don't feel like you have to use the same weight for all of them</t>
-  </si>
-  <si>
-    <t>feel free to adjust the way as you go through it</t>
-  </si>
-  <si>
-    <t>start with your best gas</t>
-  </si>
-  <si>
-    <t>but don't just keep the weight if it's not if you're not able to complete the reps in a safe manner or the other way if it's not challenging you make sure to up the weight so you can get that full benefit nice work driving off the heels pressing straight up keep it up guys almost there and five four three two one zero</t>
-  </si>
-  <si>
-    <t>we're up on our feet and try to keep the pace up a little bit faster for the second round because we know what we're doing we're going to stiff leg deadlift or our dl+ shrug kick back</t>
-  </si>
-  <si>
-    <t>blow your knees hop in the truck taking the weight back on our hips feeling that stretch and up and shrug nice work</t>
-  </si>
-  <si>
-    <t>this one really hits that whole posterior chain so important i always say in your front are the show muscles in the back of the go muscles basically means all your power and real athleticism comes from your backside</t>
-  </si>
-  <si>
-    <t>come on keep it up you got it nice work not many left</t>
-  </si>
-  <si>
-    <t>let's go five more seconds</t>
-  </si>
-  <si>
-    <t>that's it and four three two one and zero finishing strong</t>
-  </si>
-  <si>
-    <t>okay grab your seat beam</t>
-  </si>
-  <si>
-    <t>got one so</t>
-  </si>
-  <si>
-    <t>if you're doing your shoulder press say get seated feel free to grab it otherwise kicking them up getting right into it bring those dumbbells down to about in line with your ears</t>
-  </si>
-  <si>
-    <t>maybe just a little bit lower really depends on your flexibility and what feels comfortable</t>
-  </si>
-  <si>
-    <t>don't take it to a place</t>
-  </si>
-  <si>
-    <t>it feels awkward with shoulders</t>
-  </si>
-  <si>
-    <t>nice work core stays tight</t>
-  </si>
-  <si>
-    <t>doesn't matter either one whichever one you're doing still stays tight nice work</t>
-  </si>
-  <si>
-    <t>this is about that point in the workout</t>
-  </si>
-  <si>
-    <t>where you start to really feel it it starts to kick in and it becomes all mental right now not even physical</t>
-  </si>
-  <si>
-    <t>it's all up in your head</t>
-  </si>
-  <si>
-    <t>it's all that mental toughness and grip that's going to keep you moving fighting</t>
-  </si>
-  <si>
-    <t>through rep by rep</t>
-  </si>
-  <si>
-    <t>let's go come on and five four three two one zero</t>
-  </si>
-  <si>
-    <t>ahh all right feeling good moving on to a dumbbell curls</t>
-  </si>
-  <si>
-    <t>we're hitting the biceps next</t>
-  </si>
-  <si>
-    <t>let's get it both curling at the same time curling those pinkies in there we go arms are starting to be a little bit get a little bit lactic</t>
-  </si>
-  <si>
-    <t>acid built up in them</t>
-  </si>
-  <si>
-    <t>remember you don't have to listen to that</t>
-  </si>
-  <si>
-    <t>that's just a pain signal but the muscles got plenty left</t>
-  </si>
-  <si>
-    <t>you got this come on driving through curl those pinkies in shoulders are back nice</t>
-  </si>
-  <si>
-    <t>work one right into the next good form not swinging the weights not getting a bunch of momentum involved almost there go five more seconds</t>
-  </si>
-  <si>
-    <t>that's it and four three two one zero all right all right</t>
-  </si>
-  <si>
-    <t>we're moving on to either a dumbbell squat or a dumbbell goblet squat from the chair</t>
-  </si>
-  <si>
-    <t>i'll clean that name up later</t>
-  </si>
-  <si>
-    <t>okay so we're doing going into our squats weights back in our hips making sure to break at the hips every time</t>
-  </si>
-  <si>
-    <t>because if you don't what happens is you bend at the knees first and you end up here</t>
-  </si>
-  <si>
-    <t>and then you're like oh man</t>
-  </si>
-  <si>
-    <t>my knees hurt hips back then squat</t>
-  </si>
-  <si>
-    <t>that's the key</t>
-  </si>
-  <si>
-    <t>keep those feet flat drive off the heels nice work</t>
-  </si>
-  <si>
-    <t>you got it every squat you do</t>
-  </si>
-  <si>
-    <t>you're going to get that much better at it</t>
-  </si>
-  <si>
-    <t>nobody starts great at these</t>
-  </si>
-  <si>
-    <t>i promise you it's work putting in the work right here and you will see the results</t>
-  </si>
-  <si>
-    <t>i promise you come back repeat it better</t>
-  </si>
-  <si>
-    <t>that's what it's all about</t>
-  </si>
-  <si>
-    <t>thank you so much for your hard work today</t>
-  </si>
-  <si>
-    <t>nice work good we got it</t>
-  </si>
-  <si>
-    <t>let's go five four three two one and done okay</t>
-  </si>
-  <si>
-    <t>we're going back to the upper body</t>
-  </si>
-  <si>
-    <t>moretz said while one body parts resting the others working</t>
-  </si>
-  <si>
-    <t>so now we're going to the upper body dumbbell tricep kickbacks elbows are up only bennett those elbows extend and squeeze that back of the arm squeeze those triceps</t>
-  </si>
-  <si>
-    <t>nice work guys come on keep it up one into the next this</t>
-  </si>
-  <si>
-    <t>is it right here</t>
-  </si>
-  <si>
-    <t>we don't have much left</t>
-  </si>
-  <si>
-    <t>we got</t>
-  </si>
-  <si>
-    <t>what about up one more exercise</t>
-  </si>
-  <si>
-    <t>i'll add one more after this one guys</t>
-  </si>
-  <si>
-    <t>that's it fighting through</t>
-  </si>
-  <si>
-    <t>it's all mental</t>
-  </si>
-  <si>
-    <t>remember focus on your goals focus on what brought you here</t>
-  </si>
-  <si>
-    <t>what motivates you and get there</t>
-  </si>
-  <si>
-    <t>breathe let's go and five four three two one and done okay</t>
-  </si>
-  <si>
-    <t>we're going to finish up with some abs</t>
-  </si>
-  <si>
-    <t>it means we're going to the ground</t>
-  </si>
-  <si>
-    <t>i'm gonna keep one body's gonna keep one this time two hands on once you'll go and we're going to go right into those reach crunches reaching up to the ceiling squeeze in those abs up at the top you got it</t>
-  </si>
-  <si>
-    <t>breathe remember this</t>
-  </si>
-  <si>
-    <t>what are you saving it for</t>
-  </si>
-  <si>
-    <t>don't save anything</t>
-  </si>
-  <si>
-    <t>put it all out there right now</t>
-  </si>
-  <si>
-    <t>right here right now</t>
-  </si>
-  <si>
-    <t>let's go nice work</t>
-  </si>
-  <si>
-    <t>nice work not much left more than halfway done with this one already here</t>
-  </si>
-  <si>
-    <t>we go rep by rep getting closer to the end</t>
-  </si>
-  <si>
-    <t>go through that finish line</t>
-  </si>
-  <si>
-    <t>almost there come on now in five four three two one zero nice work we are done</t>
-  </si>
-  <si>
-    <t>ah ah burn so good</t>
-  </si>
-  <si>
-    <t>thank you so much nice work girl</t>
-  </si>
-  <si>
-    <t>good job thank you so much for working out with us today</t>
-  </si>
-  <si>
-    <t>we couldn't do it without you literally</t>
-  </si>
-  <si>
-    <t>if you like this workout as much as we did make sure you give it a big ol thumbs up and subscribe to this youtube channel</t>
-  </si>
-  <si>
-    <t>it really helps us keep this great service free</t>
-  </si>
-  <si>
-    <t>make sure you check out has fit komm where we have free workouts free meal plans and our complete fitness programs</t>
-  </si>
-  <si>
-    <t>don't forget to follow us on social media</t>
-  </si>
-  <si>
-    <t>you can like us on facebook for in the know when our workouts come out say of the day subscribe</t>
-  </si>
-  <si>
-    <t>go show you some motivation</t>
-  </si>
-  <si>
-    <t>yeah i'd love to have you as a friend right</t>
-  </si>
-  <si>
-    <t>thank you so much for giving us the opportunity to serve you today</t>
-  </si>
-  <si>
-    <t>i'm coach kozak</t>
-  </si>
-  <si>
-    <t>i'm claudia and we will see you at your next workout</t>
+    <t>hi v-- fitters</t>
+  </si>
+  <si>
+    <t>i'm your coach today</t>
+  </si>
+  <si>
+    <t>allie cohen did you know</t>
+  </si>
+  <si>
+    <t>protein can help muscle recovery after workout</t>
+  </si>
+  <si>
+    <t>check out be fit whey protein and get your own at be fit calm</t>
+  </si>
+  <si>
+    <t>you ready to get sweaty</t>
+  </si>
+  <si>
+    <t>i have a quick 10 minute workout for you</t>
+  </si>
+  <si>
+    <t>today it has four circuits two strength moves and one cardio move you guys ready to go</t>
+  </si>
+  <si>
+    <t>let's do it all right</t>
+  </si>
+  <si>
+    <t>we're going to start with a warm-up we're going to go into a wide squat squat right here feet back in the center and then one to the other side good</t>
+  </si>
+  <si>
+    <t>so you're doing one right and one left</t>
+  </si>
+  <si>
+    <t>let's go to the side good</t>
+  </si>
+  <si>
+    <t>give me that squat</t>
+  </si>
+  <si>
+    <t>we're just getting those legs</t>
+  </si>
+  <si>
+    <t>nice and warm</t>
+  </si>
+  <si>
+    <t>big inhale big exhale</t>
+  </si>
+  <si>
+    <t>perfect getting that body ready to get really sweaty perfect</t>
+  </si>
+  <si>
+    <t>go ahead back to the middle again side</t>
+  </si>
+  <si>
+    <t>step your arms just in front of you</t>
+  </si>
+  <si>
+    <t>keep that chest up weight in the center</t>
+  </si>
+  <si>
+    <t>good get that breath going</t>
+  </si>
+  <si>
+    <t>that breath is gonna help with your movements</t>
+  </si>
+  <si>
+    <t>you want to make sure you keep breathing</t>
+  </si>
+  <si>
+    <t>good one more each side and back to the mill</t>
+  </si>
+  <si>
+    <t>press off that heel good you look great last one good right into jump rope so your feet are just going to go side to side arms right by your side circling like you would a jump rope and you want to again</t>
+  </si>
+  <si>
+    <t>big inhale big exhale get that blood moving flowin wakin up that body perfect nice and easy light on those toes</t>
+  </si>
+  <si>
+    <t>alright we're gonna go for five more ready five four three</t>
+  </si>
+  <si>
+    <t>you're doing great two more and last one good shake it out alright first circuit</t>
+  </si>
+  <si>
+    <t>you're gonna go ahead and pick up a set of light dumbbells now</t>
+  </si>
+  <si>
+    <t>you want to get something light but not too light</t>
+  </si>
+  <si>
+    <t>you want to keep the form</t>
+  </si>
+  <si>
+    <t>don't be afraid to pick up heavier weight</t>
+  </si>
+  <si>
+    <t>roll your shoulders back</t>
+  </si>
+  <si>
+    <t>we're coming into a squat position you're gonna curl the dumbbells and press straight up all right</t>
+  </si>
+  <si>
+    <t>let's try it chest up on this as we squat good elbows in by your side</t>
+  </si>
+  <si>
+    <t>press it straight up and back down perfect so you got this loop</t>
+  </si>
+  <si>
+    <t>we're getting the arms press it straight up all the way back down good chest up but don't forget to breathe squeeze those abs press it straight up</t>
+  </si>
+  <si>
+    <t>you got it good weight in the heels abs in tight</t>
+  </si>
+  <si>
+    <t>press it up good</t>
+  </si>
+  <si>
+    <t>give me one more chest up curl the dumbbells and press it up</t>
+  </si>
+  <si>
+    <t>beautiful all right</t>
+  </si>
+  <si>
+    <t>the next move is a lateral lunge with the row</t>
+  </si>
+  <si>
+    <t>you're going to set to the side flat back row the dumbbells back down and then switch legs other side</t>
+  </si>
+  <si>
+    <t>row it back down</t>
+  </si>
+  <si>
+    <t>let's go you guys</t>
+  </si>
+  <si>
+    <t>one straight supporting leg flat back back to the middle good lunge row down but let's pick up that pace okay</t>
+  </si>
+  <si>
+    <t>now it's in our body row</t>
+  </si>
+  <si>
+    <t>good exactly i want a big exhale michelle</t>
+  </si>
+  <si>
+    <t>i hear you breathing back here</t>
+  </si>
+  <si>
+    <t>that's perfect chandler</t>
+  </si>
+  <si>
+    <t>use that breath good</t>
+  </si>
+  <si>
+    <t>my team kicks booty flat back</t>
+  </si>
+  <si>
+    <t>you guys are killing it looking so good you have one more each side row it press off that heal</t>
+  </si>
+  <si>
+    <t>good back is nice and flat last one back to the middle good set your weights down because we have our first cardio move arms come up nice</t>
+  </si>
+  <si>
+    <t>mash is right down</t>
+  </si>
+  <si>
+    <t>the center of your chest is gonna get the cardio going abs working</t>
+  </si>
+  <si>
+    <t>let's go you guys down down down</t>
+  </si>
+  <si>
+    <t>good big exhale down that check perfect you want to chop those arms straight down</t>
+  </si>
+  <si>
+    <t>the size of your body</t>
+  </si>
+  <si>
+    <t>knee comes up big exhale each time</t>
+  </si>
+  <si>
+    <t>nice chandler perfect when the knees</t>
+  </si>
+  <si>
+    <t>come up you're gonna feel those abs contracting and you're doing it just fine keep going you have five more four more three more two more and last one</t>
+  </si>
+  <si>
+    <t>good your first break</t>
+  </si>
+  <si>
+    <t>take a sip of water if you need it but these are quick</t>
+  </si>
+  <si>
+    <t>we're gonna move very shortly so for this next circuit all you're gonna need is one dumbbell</t>
+  </si>
+  <si>
+    <t>okay one dumbbell for this next this next block so first move</t>
+  </si>
+  <si>
+    <t>we're gonna start with our feet together</t>
+  </si>
+  <si>
+    <t>go with the forward lunge chop it to the side</t>
+  </si>
+  <si>
+    <t>press off the heel and switch sides all right you ready michelle all right knee in line with that heel lunge and back to the center</t>
+  </si>
+  <si>
+    <t>good lunge back to the center chest up beautiful and you keep that dumbbell in that chest good</t>
+  </si>
+  <si>
+    <t>it comes right to the side on that chop to getting those abs in with those legs</t>
+  </si>
+  <si>
+    <t>perfect one more each side back to the middle last one good work perfect all right move to</t>
+  </si>
+  <si>
+    <t>i want you to put your toes out in a nice plie squat position elbows behind you right by your ears</t>
+  </si>
+  <si>
+    <t>wait behind your head</t>
+  </si>
+  <si>
+    <t>you're going to take the weight down in a plie squat drive it up towards the ceiling back to hit those triceps so we open it up</t>
+  </si>
+  <si>
+    <t>let's do it lower and squeeze it up</t>
+  </si>
+  <si>
+    <t>press it back good chest up all the way down up squeeze now we know the moves so we can get into it down up</t>
+  </si>
+  <si>
+    <t>good squeeze those sides together</t>
+  </si>
+  <si>
+    <t>i want you to squeeze your buns nice and tight abs in tight</t>
+  </si>
+  <si>
+    <t>good this is my b of a full body</t>
+  </si>
+  <si>
+    <t>okay you got fun arms abs</t>
+  </si>
+  <si>
+    <t>everything's going three more come on back</t>
+  </si>
+  <si>
+    <t>she wore down nice</t>
+  </si>
+  <si>
+    <t>you guys are doing great</t>
+  </si>
+  <si>
+    <t>you have one left after this and then we go to our cardio move beautiful</t>
+  </si>
+  <si>
+    <t>set that weight down</t>
+  </si>
+  <si>
+    <t>alright cardio move is gonna be hop hop reach down hop hop reach down you guys</t>
+  </si>
+  <si>
+    <t>let's go hop hop chest up good really reach with a strong arm</t>
+  </si>
+  <si>
+    <t>stick that booty out and chest up</t>
+  </si>
+  <si>
+    <t>that's right we always stick it out right</t>
+  </si>
+  <si>
+    <t>good hop hop squeeze good big exhale yep this is a cardio move so right now is when you're gonna start to probably break a sweat if you haven't already good ha ha down ha ha down two more last one beautiful all right quick</t>
+  </si>
+  <si>
+    <t>break rabbits if you need it we're going into circuit number three</t>
+  </si>
+  <si>
+    <t>you are gonna grab those dumbbells again for this now</t>
+  </si>
+  <si>
+    <t>this may look familiar to you</t>
+  </si>
+  <si>
+    <t>you're going to go back to that</t>
+  </si>
+  <si>
+    <t>plie squat position toes out</t>
+  </si>
+  <si>
+    <t>we're gonna drop down curl the dumbbells rotate to a shoulder</t>
+  </si>
+  <si>
+    <t>press bring it all the way down</t>
+  </si>
+  <si>
+    <t>let's go down curl and press beautiful all right</t>
+  </si>
+  <si>
+    <t>this definitely works</t>
+  </si>
+  <si>
+    <t>i'm already feeling it breaking the sweat</t>
+  </si>
+  <si>
+    <t>good this is gonna get you nice and toned lean and right into the shape shape of our life the best shape of our lives right all the way down</t>
+  </si>
+  <si>
+    <t>good breathe good</t>
+  </si>
+  <si>
+    <t>give one more down</t>
+  </si>
+  <si>
+    <t>squeeze those abs in tight last one</t>
+  </si>
+  <si>
+    <t>press it up beautiful all right c together for the next one</t>
+  </si>
+  <si>
+    <t>we're gonna work the triceps</t>
+  </si>
+  <si>
+    <t>you're gonna kick it back and switch sides other side good</t>
+  </si>
+  <si>
+    <t>let's go press those knuckles back towards the seat back towards the back of the room</t>
+  </si>
+  <si>
+    <t>so many walls going on right</t>
+  </si>
+  <si>
+    <t>we want the back of the room</t>
+  </si>
+  <si>
+    <t>good to reach arms toward the back</t>
+  </si>
+  <si>
+    <t>perfect we want to alternate keeping those elbows in by your side perfect</t>
+  </si>
+  <si>
+    <t>you're more than halfway there</t>
+  </si>
+  <si>
+    <t>okay keep going</t>
+  </si>
+  <si>
+    <t>i want five more five</t>
+  </si>
+  <si>
+    <t>four good breathe two more last one</t>
+  </si>
+  <si>
+    <t>you got it beautiful work you guys set those weights down we got our cardio moving this circuit</t>
+  </si>
+  <si>
+    <t>i want you to pretend like there's hot</t>
+  </si>
+  <si>
+    <t>i'm so excited right now because the ground is hot you got to pick up your feet and then we're going to cool it down four high knees</t>
+  </si>
+  <si>
+    <t>just listen to my cue and go up up good arms and by your side like the ground was hot if you were in like a beautiful desert</t>
+  </si>
+  <si>
+    <t>i'm so hot</t>
+  </si>
+  <si>
+    <t>good run it now</t>
+  </si>
+  <si>
+    <t>cool it off high knees all right</t>
+  </si>
+  <si>
+    <t>i think it's getting hot in here</t>
+  </si>
+  <si>
+    <t>should we sand it off all right</t>
+  </si>
+  <si>
+    <t>good bring it in bring it in nice and tight</t>
+  </si>
+  <si>
+    <t>good pump your arms pump comes up up up</t>
+  </si>
+  <si>
+    <t>you didn't want us in this too much on you</t>
+  </si>
+  <si>
+    <t>did ya</t>
+  </si>
+  <si>
+    <t>knees up good good</t>
+  </si>
+  <si>
+    <t>we don't forget about that but oh it's hot it's hot it's hot it's hot it's hot it's hot it's hot good fan it off fan it off you're doing great good quick five four three two one and good tap it out catch your breath catch a sip air it out take a selfie circuit number four all right we're gonna get these dumbbells we're gonna work so excited about that booty work every time stick that back nice and flat stella position with a bicep curl let's go you guys flat back down up squeeze your glutes elbows in by your side bicep curl good repeat all the way down up and curl abs in tight on that curl and curl nice now i want you to make sure that you keep your back nice and flat when you go down elbows in and you curl it up okay like that in the knees is gonna help with that flexibility and you curl good remember to breathe hah i know this is hard elbows and good but remember that breaths will help you beautiful you want to take the dumbbells right down and curl them in good give two more and one more after this</t>
+  </si>
+  <si>
+    <t>let's all go together down and beautiful all right</t>
+  </si>
+  <si>
+    <t>set one weight down</t>
+  </si>
+  <si>
+    <t>we are gonna go into a squat</t>
+  </si>
+  <si>
+    <t>reverse lunge with a chop</t>
+  </si>
+  <si>
+    <t>one on each side squat reverse lunge you guys</t>
+  </si>
+  <si>
+    <t>let's get right into it</t>
+  </si>
+  <si>
+    <t>chest up squat reverse lunge back to the center squat up a want your supporting leg</t>
+  </si>
+  <si>
+    <t>want that knee to stay in line with that heel so look down</t>
+  </si>
+  <si>
+    <t>make sure your knee is in line with your heel on that reverse lunge chest up good take it straight back michelle</t>
+  </si>
+  <si>
+    <t>let me see how you're doing beautiful and straight back nice perfect last --shoe and good last one everyone up down lunge perfect</t>
+  </si>
+  <si>
+    <t>cardio moo set your weight down</t>
+  </si>
+  <si>
+    <t>we have mountain climbers with a hole</t>
+  </si>
+  <si>
+    <t>come down palms flat on the floor</t>
+  </si>
+  <si>
+    <t>you're going to run your knees in and in freeze and in three</t>
+  </si>
+  <si>
+    <t>let's go in in freeze in in freeze</t>
+  </si>
+  <si>
+    <t>good big exhale net freeze</t>
+  </si>
+  <si>
+    <t>squeeze the abs in tight and in breathe in in freeze</t>
+  </si>
+  <si>
+    <t>good five four</t>
+  </si>
+  <si>
+    <t>ah hold it three and squeeze chu and squeeze last one one and squeeze beautiful</t>
+  </si>
+  <si>
+    <t>stand it up shake it off you are done with that circuit</t>
+  </si>
+  <si>
+    <t>i'm gonna do a quick cool down so bring your feet apart</t>
+  </si>
+  <si>
+    <t>bring the arms all the way up</t>
+  </si>
+  <si>
+    <t>big inhale big exhale as you take it down have a big breath in interlock those hands take it to the side</t>
+  </si>
+  <si>
+    <t>feel that stretch see</t>
+  </si>
+  <si>
+    <t>all that took was a short amount of time to break that sweat</t>
+  </si>
+  <si>
+    <t>so those excuses that you don't have time roll your wrists all the way down</t>
+  </si>
+  <si>
+    <t>open it up those excuses</t>
+  </si>
+  <si>
+    <t>don't matter anymore you do have time</t>
+  </si>
+  <si>
+    <t>all you need is to set a little bit of time for yourself straight your legs and then you can go on with your day</t>
+  </si>
+  <si>
+    <t>roll it up feet together</t>
+  </si>
+  <si>
+    <t>big inhale and you are done you guys crush that every time you come into that room you get stronger you get better</t>
+  </si>
+  <si>
+    <t>we'll see you next time</t>
+  </si>
+  <si>
+    <t>hey i'm courtney pray there your be fit trainer</t>
+  </si>
+  <si>
+    <t>it can be hard to get all the vitamins and minerals one needs from food alone</t>
+  </si>
+  <si>
+    <t>i take a befit multivitamin which not only keeps me healthy and strong but also boost my metabolism</t>
+  </si>
+  <si>
+    <t>i love getting all the nutritious benefits in one pill you</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +858,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D233"/>
+  <dimension ref="A1:D170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1072,7 +883,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>99.99884366989136</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1094,7 +905,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>99.99992847442627</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1124,10 +935,10 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>99.9825656414032</v>
+        <v>99.99995231628418</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1135,10 +946,10 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>60.59531569480896</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1149,7 +960,7 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>99.99996423721313</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1157,10 +968,10 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>85.95828413963318</v>
+        <v>99.99994039535522</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1182,7 +993,7 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>91.99870824813843</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1193,7 +1004,7 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>100</v>
+        <v>99.99994039535522</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1204,7 +1015,7 @@
         <v>2</v>
       </c>
       <c r="D14">
-        <v>100</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1215,7 +1026,7 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>100</v>
+        <v>99.9112069606781</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1226,7 +1037,7 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>100</v>
+        <v>99.99693632125854</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1237,7 +1048,7 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>97.26511240005493</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1248,7 +1059,7 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>100</v>
+        <v>99.99977350234985</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1259,7 +1070,7 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>100</v>
+        <v>99.99994039535522</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1270,7 +1081,7 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>99.99951124191284</v>
+        <v>99.99997615814209</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1281,7 +1092,7 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>99.99995231628418</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1292,7 +1103,7 @@
         <v>2</v>
       </c>
       <c r="D22">
-        <v>100</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1303,7 +1114,7 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <v>100</v>
+        <v>99.99994039535522</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1325,7 +1136,7 @@
         <v>2</v>
       </c>
       <c r="D25">
-        <v>100</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1336,7 +1147,7 @@
         <v>2</v>
       </c>
       <c r="D26">
-        <v>99.99978542327881</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1369,7 +1180,7 @@
         <v>2</v>
       </c>
       <c r="D29">
-        <v>100</v>
+        <v>99.99997615814209</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1380,7 +1191,7 @@
         <v>2</v>
       </c>
       <c r="D30">
-        <v>99.99996423721313</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1402,7 +1213,7 @@
         <v>2</v>
       </c>
       <c r="D32">
-        <v>99.99543428421021</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1413,7 +1224,7 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <v>100</v>
+        <v>99.9915599822998</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1454,7 +1265,7 @@
         <v>38</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37">
         <v>100</v>
@@ -1465,10 +1276,10 @@
         <v>39</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1479,7 +1290,7 @@
         <v>2</v>
       </c>
       <c r="D39">
-        <v>100</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1490,7 +1301,7 @@
         <v>2</v>
       </c>
       <c r="D40">
-        <v>100</v>
+        <v>99.99997615814209</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1512,7 +1323,7 @@
         <v>2</v>
       </c>
       <c r="D42">
-        <v>100</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1523,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <v>99.72549080848694</v>
+        <v>99.99927282333374</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1545,7 +1356,7 @@
         <v>2</v>
       </c>
       <c r="D45">
-        <v>100</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1556,7 +1367,7 @@
         <v>2</v>
       </c>
       <c r="D46">
-        <v>100</v>
+        <v>99.99996423721313</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1575,10 +1386,10 @@
         <v>49</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>100</v>
+        <v>99.9997615814209</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1589,7 +1400,7 @@
         <v>2</v>
       </c>
       <c r="D49">
-        <v>100</v>
+        <v>99.90565180778503</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1600,7 +1411,7 @@
         <v>2</v>
       </c>
       <c r="D50">
-        <v>100</v>
+        <v>99.9998927116394</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1611,7 +1422,7 @@
         <v>2</v>
       </c>
       <c r="D51">
-        <v>100</v>
+        <v>99.99984502792358</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1622,7 +1433,7 @@
         <v>2</v>
       </c>
       <c r="D52">
-        <v>100</v>
+        <v>99.99997615814209</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1633,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="D53">
-        <v>100</v>
+        <v>99.99929666519165</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1644,7 +1455,7 @@
         <v>2</v>
       </c>
       <c r="D54">
-        <v>100</v>
+        <v>99.99933242797852</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1655,7 +1466,7 @@
         <v>2</v>
       </c>
       <c r="D55">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1663,10 +1474,10 @@
         <v>57</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>99.96091723442078</v>
+        <v>83.32215547561646</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1674,10 +1485,10 @@
         <v>58</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57">
-        <v>99.9971866607666</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1688,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="D58">
-        <v>100</v>
+        <v>99.99988079071045</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1699,7 +1510,7 @@
         <v>2</v>
       </c>
       <c r="D59">
-        <v>100</v>
+        <v>99.99997615814209</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1718,7 +1529,7 @@
         <v>62</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61">
         <v>100</v>
@@ -1732,7 +1543,7 @@
         <v>2</v>
       </c>
       <c r="D62">
-        <v>100</v>
+        <v>99.99997615814209</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1743,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="D63">
-        <v>99.99991655349731</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1751,10 +1562,10 @@
         <v>65</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D64">
-        <v>99.98040795326233</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1776,7 +1587,7 @@
         <v>2</v>
       </c>
       <c r="D66">
-        <v>100</v>
+        <v>89.74702954292297</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1795,7 +1606,7 @@
         <v>69</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68">
         <v>100</v>
@@ -1809,7 +1620,7 @@
         <v>2</v>
       </c>
       <c r="D69">
-        <v>99.99990463256836</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1853,7 +1664,7 @@
         <v>2</v>
       </c>
       <c r="D73">
-        <v>99.99181032180786</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1864,7 +1675,7 @@
         <v>2</v>
       </c>
       <c r="D74">
-        <v>100</v>
+        <v>99.99994039535522</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1908,7 +1719,7 @@
         <v>2</v>
       </c>
       <c r="D78">
-        <v>99.99961853027344</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1916,10 +1727,10 @@
         <v>80</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79">
-        <v>84.98300909996033</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1927,7 +1738,7 @@
         <v>81</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D80">
         <v>100</v>
@@ -1938,10 +1749,10 @@
         <v>82</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D81">
-        <v>100</v>
+        <v>88.20975422859192</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1949,10 +1760,10 @@
         <v>83</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D82">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1971,10 +1782,10 @@
         <v>85</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84">
-        <v>99.99997615814209</v>
+        <v>99.9997615814209</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1985,7 +1796,7 @@
         <v>2</v>
       </c>
       <c r="D85">
-        <v>100</v>
+        <v>99.99992847442627</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2015,10 +1826,10 @@
         <v>89</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D88">
-        <v>53.71508002281189</v>
+        <v>99.99988079071045</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2026,7 +1837,7 @@
         <v>90</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D89">
         <v>100</v>
@@ -2040,7 +1851,7 @@
         <v>2</v>
       </c>
       <c r="D90">
-        <v>100</v>
+        <v>99.99850988388062</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2051,7 +1862,7 @@
         <v>2</v>
       </c>
       <c r="D91">
-        <v>100</v>
+        <v>82.39760994911194</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2062,7 +1873,7 @@
         <v>2</v>
       </c>
       <c r="D92">
-        <v>99.99669790267944</v>
+        <v>74.03348088264465</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2073,7 +1884,7 @@
         <v>2</v>
       </c>
       <c r="D93">
-        <v>99.89771842956543</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2084,7 +1895,7 @@
         <v>2</v>
       </c>
       <c r="D94">
-        <v>89.76674675941467</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2095,7 +1906,7 @@
         <v>2</v>
       </c>
       <c r="D95">
-        <v>100</v>
+        <v>99.98767375946045</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2103,10 +1914,10 @@
         <v>97</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D96">
-        <v>99.99967813491821</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2117,7 +1928,7 @@
         <v>2</v>
       </c>
       <c r="D97">
-        <v>100</v>
+        <v>99.42518472671509</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2128,7 +1939,7 @@
         <v>2</v>
       </c>
       <c r="D98">
-        <v>100</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2161,7 +1972,7 @@
         <v>2</v>
       </c>
       <c r="D101">
-        <v>99.98487234115601</v>
+        <v>99.89904761314392</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2169,10 +1980,10 @@
         <v>103</v>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D102">
-        <v>100</v>
+        <v>99.91976618766785</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2183,7 +1994,7 @@
         <v>2</v>
       </c>
       <c r="D103">
-        <v>100</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2194,7 +2005,7 @@
         <v>2</v>
       </c>
       <c r="D104">
-        <v>100</v>
+        <v>99.99990463256836</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2205,7 +2016,7 @@
         <v>2</v>
       </c>
       <c r="D105">
-        <v>100</v>
+        <v>99.99933242797852</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2227,7 +2038,7 @@
         <v>2</v>
       </c>
       <c r="D107">
-        <v>99.99212026596069</v>
+        <v>99.99997615814209</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2238,7 +2049,7 @@
         <v>2</v>
       </c>
       <c r="D108">
-        <v>99.99955892562866</v>
+        <v>99.99421834945679</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2271,7 +2082,7 @@
         <v>2</v>
       </c>
       <c r="D111">
-        <v>100</v>
+        <v>99.98403787612915</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2309,51 +2120,51 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="C115">
         <v>2</v>
       </c>
       <c r="D115">
-        <v>100</v>
+        <v>99.99992847442627</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C116">
         <v>2</v>
       </c>
       <c r="D116">
-        <v>99.99998807907104</v>
+        <v>99.99765157699585</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C117">
         <v>2</v>
       </c>
       <c r="D117">
-        <v>99.99616146087646</v>
+        <v>100</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C118">
         <v>2</v>
       </c>
       <c r="D118">
-        <v>99.97789263725281</v>
+        <v>99.99997615814209</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C119">
         <v>2</v>
@@ -2364,7 +2175,7 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C120">
         <v>2</v>
@@ -2375,7 +2186,7 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C121">
         <v>2</v>
@@ -2386,18 +2197,18 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C122">
         <v>2</v>
       </c>
       <c r="D122">
-        <v>99.99954700469971</v>
+        <v>100</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C123">
         <v>2</v>
@@ -2408,18 +2219,18 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C124">
         <v>2</v>
       </c>
       <c r="D124">
-        <v>100</v>
+        <v>99.99915361404419</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C125">
         <v>2</v>
@@ -2430,7 +2241,7 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C126">
         <v>2</v>
@@ -2441,10 +2252,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D127">
         <v>100</v>
@@ -2452,18 +2263,18 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C128">
         <v>2</v>
       </c>
       <c r="D128">
-        <v>99.99996423721313</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C129">
         <v>2</v>
@@ -2474,7 +2285,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C130">
         <v>2</v>
@@ -2485,62 +2296,62 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C131">
         <v>2</v>
       </c>
       <c r="D131">
-        <v>100</v>
+        <v>86.68943643569946</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D132">
-        <v>99.99998807907104</v>
+        <v>95.32052278518677</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D133">
-        <v>99.99511241912842</v>
+        <v>99.99949932098389</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C134">
         <v>2</v>
       </c>
       <c r="D134">
-        <v>100</v>
+        <v>99.99979734420776</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C135">
         <v>2</v>
       </c>
       <c r="D135">
-        <v>99.99905824661255</v>
+        <v>100</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C136">
         <v>2</v>
@@ -2551,7 +2362,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C137">
         <v>2</v>
@@ -2562,18 +2373,18 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C138">
         <v>2</v>
       </c>
       <c r="D138">
-        <v>100</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C139">
         <v>2</v>
@@ -2584,18 +2395,18 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C140">
         <v>2</v>
       </c>
       <c r="D140">
-        <v>99.98816251754761</v>
+        <v>100</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C141">
         <v>2</v>
@@ -2606,7 +2417,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C142">
         <v>2</v>
@@ -2617,18 +2428,18 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C143">
         <v>2</v>
       </c>
       <c r="D143">
-        <v>99.99986886978149</v>
+        <v>100</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C144">
         <v>2</v>
@@ -2639,7 +2450,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C145">
         <v>2</v>
@@ -2650,29 +2461,29 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C146">
         <v>2</v>
       </c>
       <c r="D146">
-        <v>100</v>
+        <v>99.9970555305481</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C147">
         <v>2</v>
       </c>
       <c r="D147">
-        <v>100</v>
+        <v>99.99951124191284</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C148">
         <v>2</v>
@@ -2683,40 +2494,40 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D149">
-        <v>100</v>
+        <v>50.00947117805481</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C150">
         <v>2</v>
       </c>
       <c r="D150">
-        <v>100</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C151">
         <v>2</v>
       </c>
       <c r="D151">
-        <v>100</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C152">
         <v>2</v>
@@ -2727,7 +2538,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C153">
         <v>2</v>
@@ -2738,7 +2549,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C154">
         <v>2</v>
@@ -2749,7 +2560,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C155">
         <v>2</v>
@@ -2760,7 +2571,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C156">
         <v>2</v>
@@ -2771,73 +2582,73 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C157">
         <v>2</v>
       </c>
       <c r="D157">
-        <v>100</v>
+        <v>99.99997615814209</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D158">
-        <v>100</v>
+        <v>59.84077453613281</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C159">
         <v>2</v>
       </c>
       <c r="D159">
-        <v>100</v>
+        <v>99.99948740005493</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C160">
         <v>2</v>
       </c>
       <c r="D160">
-        <v>100</v>
+        <v>99.94229078292847</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C161">
         <v>2</v>
       </c>
       <c r="D161">
-        <v>92.17342138290405</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D162">
-        <v>100</v>
+        <v>99.99912977218628</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C163">
         <v>2</v>
@@ -2848,18 +2659,18 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C164">
         <v>2</v>
       </c>
       <c r="D164">
-        <v>95.80987691879272</v>
+        <v>100</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C165">
         <v>2</v>
@@ -2870,749 +2681,56 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D166">
-        <v>81.40982389450073</v>
+        <v>99.99997615814209</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D167">
-        <v>99.99996423721313</v>
+        <v>100</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D168">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>99.99997615814209</v>
+        <v>100</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D170">
-        <v>99.99955892562866</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" t="s">
-        <v>172</v>
-      </c>
-      <c r="C171">
-        <v>2</v>
-      </c>
-      <c r="D171">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" t="s">
-        <v>173</v>
-      </c>
-      <c r="C172">
-        <v>2</v>
-      </c>
-      <c r="D172">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" t="s">
-        <v>174</v>
-      </c>
-      <c r="C173">
-        <v>2</v>
-      </c>
-      <c r="D173">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" t="s">
-        <v>175</v>
-      </c>
-      <c r="C174">
-        <v>2</v>
-      </c>
-      <c r="D174">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" t="s">
-        <v>176</v>
-      </c>
-      <c r="C175">
-        <v>2</v>
-      </c>
-      <c r="D175">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="A176" t="s">
-        <v>177</v>
-      </c>
-      <c r="C176">
-        <v>1</v>
-      </c>
-      <c r="D176">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" t="s">
-        <v>178</v>
-      </c>
-      <c r="C177">
-        <v>2</v>
-      </c>
-      <c r="D177">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" t="s">
-        <v>179</v>
-      </c>
-      <c r="C178">
-        <v>2</v>
-      </c>
-      <c r="D178">
-        <v>99.99996423721313</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" t="s">
-        <v>180</v>
-      </c>
-      <c r="C179">
-        <v>2</v>
-      </c>
-      <c r="D179">
-        <v>99.9994158744812</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
-      <c r="A180" t="s">
-        <v>181</v>
-      </c>
-      <c r="C180">
-        <v>2</v>
-      </c>
-      <c r="D180">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181" t="s">
-        <v>182</v>
-      </c>
-      <c r="C181">
-        <v>2</v>
-      </c>
-      <c r="D181">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
-      <c r="A182" t="s">
-        <v>183</v>
-      </c>
-      <c r="C182">
-        <v>2</v>
-      </c>
-      <c r="D182">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
-      <c r="A183" t="s">
-        <v>184</v>
-      </c>
-      <c r="C183">
-        <v>2</v>
-      </c>
-      <c r="D183">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
-      <c r="A184" t="s">
-        <v>185</v>
-      </c>
-      <c r="C184">
-        <v>1</v>
-      </c>
-      <c r="D184">
-        <v>97.34569787979126</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
-      <c r="A185" t="s">
-        <v>186</v>
-      </c>
-      <c r="C185">
-        <v>1</v>
-      </c>
-      <c r="D185">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
-      <c r="A186" t="s">
-        <v>187</v>
-      </c>
-      <c r="C186">
-        <v>1</v>
-      </c>
-      <c r="D186">
-        <v>64.0005350112915</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
-      <c r="A187" t="s">
-        <v>188</v>
-      </c>
-      <c r="C187">
-        <v>2</v>
-      </c>
-      <c r="D187">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="A188" t="s">
-        <v>189</v>
-      </c>
-      <c r="C188">
-        <v>2</v>
-      </c>
-      <c r="D188">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="A189" t="s">
-        <v>190</v>
-      </c>
-      <c r="C189">
-        <v>1</v>
-      </c>
-      <c r="D189">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
-      <c r="A190" t="s">
-        <v>191</v>
-      </c>
-      <c r="C190">
-        <v>2</v>
-      </c>
-      <c r="D190">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
-      <c r="A191" t="s">
-        <v>192</v>
-      </c>
-      <c r="C191">
-        <v>2</v>
-      </c>
-      <c r="D191">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
-      <c r="A192" t="s">
-        <v>193</v>
-      </c>
-      <c r="C192">
-        <v>2</v>
-      </c>
-      <c r="D192">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
-      <c r="A193" t="s">
-        <v>194</v>
-      </c>
-      <c r="C193">
-        <v>2</v>
-      </c>
-      <c r="D193">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
-      <c r="A194" t="s">
-        <v>195</v>
-      </c>
-      <c r="C194">
-        <v>2</v>
-      </c>
-      <c r="D194">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
-      <c r="A195" t="s">
-        <v>196</v>
-      </c>
-      <c r="C195">
-        <v>2</v>
-      </c>
-      <c r="D195">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
-      <c r="A196" t="s">
-        <v>197</v>
-      </c>
-      <c r="C196">
-        <v>2</v>
-      </c>
-      <c r="D196">
-        <v>99.99997615814209</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
-      <c r="A197" t="s">
-        <v>198</v>
-      </c>
-      <c r="C197">
-        <v>2</v>
-      </c>
-      <c r="D197">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
-      <c r="A198" t="s">
-        <v>199</v>
-      </c>
-      <c r="C198">
-        <v>2</v>
-      </c>
-      <c r="D198">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
-      <c r="A199" t="s">
-        <v>200</v>
-      </c>
-      <c r="C199">
-        <v>2</v>
-      </c>
-      <c r="D199">
-        <v>99.99889135360718</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
-      <c r="A200" t="s">
-        <v>201</v>
-      </c>
-      <c r="C200">
-        <v>1</v>
-      </c>
-      <c r="D200">
-        <v>99.99468326568604</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
-      <c r="A201" t="s">
-        <v>202</v>
-      </c>
-      <c r="C201">
-        <v>2</v>
-      </c>
-      <c r="D201">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
-      <c r="A202" t="s">
-        <v>203</v>
-      </c>
-      <c r="C202">
-        <v>2</v>
-      </c>
-      <c r="D202">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
-      <c r="A203" t="s">
-        <v>204</v>
-      </c>
-      <c r="C203">
-        <v>2</v>
-      </c>
-      <c r="D203">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
-      <c r="A204" t="s">
-        <v>205</v>
-      </c>
-      <c r="C204">
-        <v>2</v>
-      </c>
-      <c r="D204">
-        <v>99.99995231628418</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
-      <c r="A205" t="s">
-        <v>206</v>
-      </c>
-      <c r="C205">
-        <v>2</v>
-      </c>
-      <c r="D205">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
-      <c r="A206" t="s">
-        <v>207</v>
-      </c>
-      <c r="C206">
-        <v>2</v>
-      </c>
-      <c r="D206">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
-      <c r="A207" t="s">
-        <v>208</v>
-      </c>
-      <c r="C207">
-        <v>2</v>
-      </c>
-      <c r="D207">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
-      <c r="A208" t="s">
-        <v>209</v>
-      </c>
-      <c r="C208">
-        <v>2</v>
-      </c>
-      <c r="D208">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
-      <c r="A209" t="s">
-        <v>210</v>
-      </c>
-      <c r="C209">
-        <v>2</v>
-      </c>
-      <c r="D209">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
-      <c r="A210" t="s">
-        <v>197</v>
-      </c>
-      <c r="C210">
-        <v>2</v>
-      </c>
-      <c r="D210">
-        <v>99.99997615814209</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4">
-      <c r="A211" t="s">
-        <v>211</v>
-      </c>
-      <c r="C211">
-        <v>2</v>
-      </c>
-      <c r="D211">
-        <v>63.68331909179688</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
-      <c r="A212" t="s">
-        <v>212</v>
-      </c>
-      <c r="C212">
-        <v>2</v>
-      </c>
-      <c r="D212">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
-      <c r="A213" t="s">
-        <v>213</v>
-      </c>
-      <c r="C213">
-        <v>2</v>
-      </c>
-      <c r="D213">
-        <v>99.99988079071045</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
-      <c r="A214" t="s">
-        <v>214</v>
-      </c>
-      <c r="C214">
-        <v>2</v>
-      </c>
-      <c r="D214">
-        <v>99.90843534469604</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4">
-      <c r="A215" t="s">
-        <v>215</v>
-      </c>
-      <c r="C215">
-        <v>2</v>
-      </c>
-      <c r="D215">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4">
-      <c r="A216" t="s">
-        <v>216</v>
-      </c>
-      <c r="C216">
-        <v>2</v>
-      </c>
-      <c r="D216">
-        <v>99.99996423721313</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
-      <c r="A217" t="s">
-        <v>217</v>
-      </c>
-      <c r="C217">
-        <v>1</v>
-      </c>
-      <c r="D217">
-        <v>99.99675750732422</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
-      <c r="A218" t="s">
-        <v>218</v>
-      </c>
-      <c r="C218">
-        <v>2</v>
-      </c>
-      <c r="D218">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
-      <c r="A219" t="s">
-        <v>219</v>
-      </c>
-      <c r="C219">
-        <v>2</v>
-      </c>
-      <c r="D219">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
-      <c r="A220" t="s">
-        <v>220</v>
-      </c>
-      <c r="C220">
-        <v>1</v>
-      </c>
-      <c r="D220">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4">
-      <c r="A221" t="s">
-        <v>221</v>
-      </c>
-      <c r="C221">
-        <v>1</v>
-      </c>
-      <c r="D221">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4">
-      <c r="A222" t="s">
-        <v>222</v>
-      </c>
-      <c r="C222">
-        <v>1</v>
-      </c>
-      <c r="D222">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4">
-      <c r="A223" t="s">
-        <v>223</v>
-      </c>
-      <c r="C223">
-        <v>2</v>
-      </c>
-      <c r="D223">
-        <v>99.99940395355225</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4">
-      <c r="A224" t="s">
-        <v>224</v>
-      </c>
-      <c r="C224">
-        <v>1</v>
-      </c>
-      <c r="D224">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4">
-      <c r="A225" t="s">
-        <v>225</v>
-      </c>
-      <c r="C225">
-        <v>1</v>
-      </c>
-      <c r="D225">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4">
-      <c r="A226" t="s">
-        <v>226</v>
-      </c>
-      <c r="C226">
-        <v>1</v>
-      </c>
-      <c r="D226">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4">
-      <c r="A227" t="s">
-        <v>227</v>
-      </c>
-      <c r="C227">
-        <v>1</v>
-      </c>
-      <c r="D227">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4">
-      <c r="A228" t="s">
-        <v>228</v>
-      </c>
-      <c r="C228">
-        <v>1</v>
-      </c>
-      <c r="D228">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4">
-      <c r="A229" t="s">
-        <v>229</v>
-      </c>
-      <c r="C229">
-        <v>1</v>
-      </c>
-      <c r="D229">
-        <v>99.9998927116394</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4">
-      <c r="A230" t="s">
-        <v>230</v>
-      </c>
-      <c r="C230">
-        <v>1</v>
-      </c>
-      <c r="D230">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4">
-      <c r="A231" t="s">
-        <v>231</v>
-      </c>
-      <c r="C231">
-        <v>1</v>
-      </c>
-      <c r="D231">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4">
-      <c r="A232" t="s">
-        <v>232</v>
-      </c>
-      <c r="C232">
-        <v>1</v>
-      </c>
-      <c r="D232">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4">
-      <c r="A233" t="s">
-        <v>233</v>
-      </c>
-      <c r="C233">
-        <v>1</v>
-      </c>
-      <c r="D233">
         <v>100</v>
       </c>
     </row>
